--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2314367.371393103</v>
+        <v>2274404.088453911</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>357274.432855661</v>
+        <v>208638.8874907337</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478712</v>
+        <v>8362709.488478714</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7251900.315303013</v>
+        <v>7251900.315303011</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>30.24678523090109</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>183.4693513325733</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>92.36340512479043</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>105.9408183449446</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,13 +913,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,25 +940,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>22.43212445296252</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1037,13 +1037,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>70.73885857389313</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>222.1008216780093</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>200.160833108852</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>5.032729720860218</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,13 +1271,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>171.4961370259795</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>50.2158870534947</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>103.5148068144577</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,13 +1448,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>104.762941123735</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>56.22893659596764</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
         <v>158.7937537960548</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>132.1304135414941</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>13.08993799274016</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>339.3815651778788</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>352.5925784399357</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1688,13 +1688,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>41.16551806305293</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
         <v>158.7937537960548</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>114.4665668086332</v>
       </c>
     </row>
     <row r="16">
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.9561866171905</v>
+        <v>150.997463311119</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>229.1941025766964</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>270.7987718622635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,10 +1985,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>193.5433404074103</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>7.353154002015296</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>85.73493885277921</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>154.1918883064001</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>27.05812606614679</v>
+        <v>22.29586221138139</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
@@ -2219,7 +2219,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>135.4091428423057</v>
+        <v>34.38075594796302</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>209.3053109272533</v>
+        <v>73.903280940294</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>56.76634050962629</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>158.163633410292</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>85.67482303850645</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78.40765649564759</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>36.47032810799539</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2529,13 +2529,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>80.79258128802711</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>275.4333572396658</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>27.54884336588864</v>
       </c>
     </row>
     <row r="27">
@@ -2648,10 +2648,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>43.76331341951682</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8957288909827</v>
+        <v>27.47589768952058</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>48.2878928687059</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>258.5995024684707</v>
       </c>
       <c r="G29" t="n">
-        <v>278.8035267179168</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2879,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>144.3232208374472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>64.33626155989568</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>48.28789286870591</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>111.0188171299941</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3031,16 +3031,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>300.7062079045122</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.3773232323535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3113,10 +3113,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>64.7588051995882</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
-        <v>147.8477473493568</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
         <v>197.3677099213027</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3231,31 +3231,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>171.85826494318</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>119.5452544581847</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>261.2710370894298</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>271.0223044613606</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,10 +3350,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>146.6990740087021</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3404,7 +3404,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>139.9143118936121</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>32.29950949256934</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.15307578127808</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3468,19 +3468,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3505,10 +3505,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.4497219109554</v>
+        <v>195.3878640740078</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3587,19 +3587,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>94.09444675656027</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
@@ -3641,7 +3641,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>196.9877088776657</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>183.4401280146811</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>82.33391016332075</v>
       </c>
     </row>
     <row r="41">
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>156.0052477914341</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>414.005789270132</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>96.23708816143525</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,13 +3818,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>25.18674943245865</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3839,7 +3839,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3887,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>89.20313338495636</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.12841230553833</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3942,22 +3942,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>243.0887993295186</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>77.90124090174093</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>283.0625618884123</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4064,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>126.5210396478394</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4115,7 +4115,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>99.40314827571861</v>
       </c>
     </row>
     <row r="46">
@@ -4137,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>65.39093676387812</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>53.63479587942117</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>525.1941863946997</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>772.0302844130649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>528.5815077689649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>528.5815077689649</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>285.1327311248648</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>285.1327311248648</v>
+        <v>768.6429630387997</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>525.1941863946997</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.1352367728036</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C3" t="n">
-        <v>272.1352367728036</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D3" t="n">
-        <v>272.1352367728036</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E3" t="n">
-        <v>272.1352367728036</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F3" t="n">
-        <v>272.1352367728036</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>533.6469426057913</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>440.3505737928717</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>440.3505737928717</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y3" t="n">
-        <v>440.3505737928717</v>
+        <v>649.1947276839472</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>233.7108255783361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>226.7653248291326</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>211.3080142077841</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>298.4948343740486</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>298.4948343740486</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.0282188019862</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C8" t="n">
-        <v>266.0282188019862</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>752.9257720901863</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V8" t="n">
-        <v>752.9257720901863</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W8" t="n">
-        <v>509.4769954460863</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="X8" t="n">
-        <v>509.4769954460863</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y8" t="n">
-        <v>266.0282188019862</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>327.4530077769195</v>
+        <v>253.395163045047</v>
       </c>
       <c r="C9" t="n">
-        <v>327.4530077769195</v>
+        <v>253.395163045047</v>
       </c>
       <c r="D9" t="n">
-        <v>178.5185981156682</v>
+        <v>253.395163045047</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>253.395163045047</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6643376276625</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I9" t="n">
         <v>19.28114311021272</v>
@@ -4889,46 +4889,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W9" t="n">
-        <v>327.4530077769195</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="X9" t="n">
-        <v>327.4530077769195</v>
+        <v>253.395163045047</v>
       </c>
       <c r="Y9" t="n">
-        <v>327.4530077769195</v>
+        <v>253.395163045047</v>
       </c>
     </row>
     <row r="10">
@@ -4944,25 +4944,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1584.070030704059</v>
+        <v>1572.822125467577</v>
       </c>
       <c r="C11" t="n">
-        <v>1584.070030704059</v>
+        <v>1203.859608527166</v>
       </c>
       <c r="D11" t="n">
-        <v>1225.804332097308</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E11" t="n">
-        <v>840.0160794990641</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F11" t="n">
-        <v>429.0301747094565</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5065,28 +5065,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R11" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S11" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2190.61837996229</v>
+        <v>2336.427215704469</v>
       </c>
       <c r="U11" t="n">
-        <v>1936.838685974173</v>
+        <v>2336.427215704469</v>
       </c>
       <c r="V11" t="n">
-        <v>1936.838685974173</v>
+        <v>2336.427215704469</v>
       </c>
       <c r="W11" t="n">
-        <v>1584.070030704059</v>
+        <v>2336.427215704469</v>
       </c>
       <c r="X11" t="n">
-        <v>1584.070030704059</v>
+        <v>1962.961457443389</v>
       </c>
       <c r="Y11" t="n">
-        <v>1584.070030704059</v>
+        <v>1572.822125467577</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>784.5787559137638</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>610.1257266326368</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="D12" t="n">
-        <v>461.1913169713854</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9538619659299</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F12" t="n">
-        <v>155.4193039928149</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G12" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H12" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L12" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M12" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N12" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P12" t="n">
         <v>2283.899498973758</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C13" t="n">
         <v>48.81975253256327</v>
@@ -5208,43 +5208,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M13" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N13" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O13" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>640.638169680758</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="T13" t="n">
-        <v>640.638169680758</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="U13" t="n">
-        <v>351.4590821581503</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="V13" t="n">
-        <v>338.2369225695239</v>
+        <v>507.1731054974308</v>
       </c>
       <c r="W13" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="X13" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y13" t="n">
-        <v>48.81975253256327</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1301.400639102832</v>
+        <v>773.9363891092737</v>
       </c>
       <c r="C14" t="n">
-        <v>1301.400639102832</v>
+        <v>404.973872168862</v>
       </c>
       <c r="D14" t="n">
-        <v>1301.400639102832</v>
+        <v>404.973872168862</v>
       </c>
       <c r="E14" t="n">
-        <v>958.5909773069948</v>
+        <v>404.973872168862</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K14" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U14" t="n">
-        <v>2005.929284707482</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V14" t="n">
-        <v>1674.866397363912</v>
+        <v>1890.310134616279</v>
       </c>
       <c r="W14" t="n">
-        <v>1674.866397363912</v>
+        <v>1537.541479346165</v>
       </c>
       <c r="X14" t="n">
-        <v>1301.400639102832</v>
+        <v>1164.075721085085</v>
       </c>
       <c r="Y14" t="n">
-        <v>1301.400639102832</v>
+        <v>773.9363891092737</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>722.1845715439331</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="C15" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D15" t="n">
-        <v>547.7315422628061</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E15" t="n">
         <v>506.150210885985</v>
@@ -5357,13 +5357,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339194</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L15" t="n">
-        <v>540.2677802593126</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M15" t="n">
         <v>1034.670495654875</v>
@@ -5402,7 +5402,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>890.3999085640012</v>
+        <v>982.5374125727599</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="C16" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="D16" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E16" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>485.1268700674343</v>
+        <v>488.1154794675067</v>
       </c>
       <c r="U16" t="n">
-        <v>485.1268700674343</v>
+        <v>198.936391944899</v>
       </c>
       <c r="V16" t="n">
-        <v>485.1268700674343</v>
+        <v>198.936391944899</v>
       </c>
       <c r="W16" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="X16" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.7097000304736</v>
+        <v>198.936391944899</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1109.504048394587</v>
+        <v>1478.465034713924</v>
       </c>
       <c r="C17" t="n">
-        <v>740.5415314541749</v>
+        <v>1109.502517773513</v>
       </c>
       <c r="D17" t="n">
-        <v>740.5415314541749</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E17" t="n">
-        <v>740.5415314541749</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F17" t="n">
-        <v>740.5415314541749</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G17" t="n">
-        <v>322.3538655247486</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5521,7 +5521,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540047</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5542,25 +5542,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T17" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U17" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V17" t="n">
-        <v>2259.7089786956</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W17" t="n">
-        <v>2259.7089786956</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X17" t="n">
-        <v>1886.24322043452</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="Y17" t="n">
-        <v>1496.103888458708</v>
+        <v>1478.465034713924</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C18" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D18" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E18" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F18" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G18" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5609,7 +5609,7 @@
         <v>1746.002248079784</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2158.207869599013</v>
       </c>
       <c r="P18" t="n">
         <v>2283.899498973758</v>
@@ -5633,13 +5633,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1364.750740618841</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.750740618841</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y18" t="n">
-        <v>1156.990441853887</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="19">
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F19" t="n">
         <v>48.81975253256327</v>
@@ -5697,28 +5697,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>554.0372213446176</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="W19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>845.5939099204151</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C20" t="n">
-        <v>845.5939099204151</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D20" t="n">
-        <v>845.5939099204151</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E20" t="n">
-        <v>459.8056573221708</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F20" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G20" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H20" t="n">
         <v>48.81975253256327</v>
@@ -5752,13 +5752,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5779,25 +5779,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T20" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U20" t="n">
-        <v>1967.593327971733</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="V20" t="n">
-        <v>1636.530440628162</v>
+        <v>2005.929284707482</v>
       </c>
       <c r="W20" t="n">
-        <v>1609.199000157307</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="X20" t="n">
-        <v>1235.733241896227</v>
+        <v>1983.408211766693</v>
       </c>
       <c r="Y20" t="n">
-        <v>845.5939099204151</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
         <v>1970.07121469245</v>
@@ -5867,16 +5867,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1658.624260532507</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W21" t="n">
-        <v>1404.386903804306</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X21" t="n">
-        <v>1196.535403598773</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y21" t="n">
-        <v>988.7751048338188</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="22">
@@ -5919,37 +5919,37 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O22" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R22" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S22" t="n">
-        <v>487.9764913965093</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T22" t="n">
-        <v>260.2392585196878</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>260.2392585196878</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V22" t="n">
-        <v>48.81975253256327</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="W22" t="n">
-        <v>48.81975253256327</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X22" t="n">
         <v>48.81975253256327</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1219.175958566481</v>
+        <v>1309.654914773927</v>
       </c>
       <c r="C23" t="n">
-        <v>850.2134416260694</v>
+        <v>1309.654914773927</v>
       </c>
       <c r="D23" t="n">
-        <v>491.9477430193189</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="E23" t="n">
-        <v>106.1594904210747</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F23" t="n">
-        <v>106.1594904210747</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G23" t="n">
-        <v>106.1594904210747</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H23" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
@@ -6019,22 +6019,22 @@
         <v>2190.618379962291</v>
       </c>
       <c r="T23" t="n">
-        <v>2190.618379962291</v>
+        <v>2030.857134093309</v>
       </c>
       <c r="U23" t="n">
-        <v>1936.838685974173</v>
+        <v>2030.857134093309</v>
       </c>
       <c r="V23" t="n">
-        <v>1605.775798630603</v>
+        <v>1699.794246749738</v>
       </c>
       <c r="W23" t="n">
-        <v>1605.775798630603</v>
+        <v>1699.794246749738</v>
       </c>
       <c r="X23" t="n">
-        <v>1605.775798630603</v>
+        <v>1699.794246749738</v>
       </c>
       <c r="Y23" t="n">
-        <v>1605.775798630603</v>
+        <v>1309.654914773927</v>
       </c>
     </row>
     <row r="24">
@@ -6044,37 +6044,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>722.1845715439331</v>
+        <v>929.9448703088869</v>
       </c>
       <c r="C24" t="n">
-        <v>547.7315422628061</v>
+        <v>755.49184102776</v>
       </c>
       <c r="D24" t="n">
-        <v>461.1913169713854</v>
+        <v>606.5574313665087</v>
       </c>
       <c r="E24" t="n">
-        <v>301.9538619659299</v>
+        <v>447.3199763610532</v>
       </c>
       <c r="F24" t="n">
-        <v>155.4193039928149</v>
+        <v>300.7854183879382</v>
       </c>
       <c r="G24" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M24" t="n">
         <v>1034.670495654875</v>
@@ -6113,7 +6113,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>890.3999085640012</v>
+        <v>1098.160207328955</v>
       </c>
     </row>
     <row r="25">
@@ -6123,7 +6123,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85.65846779316468</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C25" t="n">
         <v>48.81975253256327</v>
@@ -6168,31 +6168,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q25" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>375.0756378301253</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>375.0756378301253</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>375.0756378301253</v>
+        <v>559.0295017130541</v>
       </c>
       <c r="W25" t="n">
-        <v>85.65846779316468</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="X25" t="n">
-        <v>85.65846779316468</v>
+        <v>269.6123316760934</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.65846779316468</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>803.5705220712192</v>
+        <v>954.9699586415231</v>
       </c>
       <c r="C26" t="n">
-        <v>434.6080051308075</v>
+        <v>954.9699586415231</v>
       </c>
       <c r="D26" t="n">
-        <v>434.6080051308075</v>
+        <v>596.7042600347727</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H26" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
@@ -6259,19 +6259,19 @@
         <v>2040.094374027286</v>
       </c>
       <c r="U26" t="n">
-        <v>1786.314680039169</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V26" t="n">
-        <v>1455.251792695598</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="W26" t="n">
-        <v>1177.036280332299</v>
+        <v>1356.262831413602</v>
       </c>
       <c r="X26" t="n">
-        <v>803.5705220712192</v>
+        <v>982.7970731525218</v>
       </c>
       <c r="Y26" t="n">
-        <v>803.5705220712192</v>
+        <v>954.9699586415231</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G27" t="n">
-        <v>93.02511962298431</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H27" t="n">
         <v>48.81975253256327</v>
@@ -6317,10 +6317,10 @@
         <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
         <v>2283.899498973758</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>1995.825244415101</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1760.673136183358</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1506.435779455157</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1298.584279249624</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="28">
@@ -6405,31 +6405,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>386.7744894175001</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T28" t="n">
-        <v>386.7744894175001</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U28" t="n">
-        <v>97.59540189489246</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>659.926780431095</v>
+        <v>1482.969806655666</v>
       </c>
       <c r="C29" t="n">
-        <v>659.926780431095</v>
+        <v>1114.007289715255</v>
       </c>
       <c r="D29" t="n">
-        <v>659.926780431095</v>
+        <v>1114.007289715255</v>
       </c>
       <c r="E29" t="n">
-        <v>659.926780431095</v>
+        <v>728.2190371170104</v>
       </c>
       <c r="F29" t="n">
-        <v>659.926780431095</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
         <v>48.81975253256327</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2190.618379962291</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T29" t="n">
-        <v>1971.003775293977</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U29" t="n">
-        <v>1717.22408130586</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V29" t="n">
-        <v>1386.161193962289</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W29" t="n">
-        <v>1033.392538692175</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X29" t="n">
-        <v>659.926780431095</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="Y29" t="n">
-        <v>659.926780431095</v>
+        <v>1869.569646719788</v>
       </c>
     </row>
     <row r="30">
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E30" t="n">
-        <v>253.0161014526182</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F30" t="n">
-        <v>253.0161014526182</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L30" t="n">
         <v>540.2677802593125</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>1090.82398048467</v>
       </c>
     </row>
     <row r="31">
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="C31" t="n">
-        <v>48.81975253256327</v>
+        <v>346.8494855272921</v>
       </c>
       <c r="D31" t="n">
-        <v>48.81975253256327</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="E31" t="n">
         <v>48.81975253256327</v>
@@ -6642,31 +6642,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>386.7744894175001</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>337.9988400551709</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U31" t="n">
-        <v>48.81975253256327</v>
+        <v>528.4979503575319</v>
       </c>
       <c r="V31" t="n">
-        <v>48.81975253256327</v>
+        <v>528.4979503575319</v>
       </c>
       <c r="W31" t="n">
-        <v>48.81975253256327</v>
+        <v>528.4979503575319</v>
       </c>
       <c r="X31" t="n">
-        <v>48.81975253256327</v>
+        <v>528.4979503575319</v>
       </c>
       <c r="Y31" t="n">
-        <v>48.81975253256327</v>
+        <v>528.4979503575319</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1572.822125467577</v>
+        <v>872.925350391271</v>
       </c>
       <c r="C32" t="n">
-        <v>1203.859608527166</v>
+        <v>872.925350391271</v>
       </c>
       <c r="D32" t="n">
-        <v>845.5939099204151</v>
+        <v>514.6596517845205</v>
       </c>
       <c r="E32" t="n">
-        <v>459.8056573221708</v>
+        <v>514.6596517845205</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G32" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H32" t="n">
-        <v>48.81975253256328</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I32" t="n">
         <v>48.81975253256328</v>
@@ -6724,28 +6724,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S32" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2190.618379962291</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U32" t="n">
-        <v>2190.618379962291</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V32" t="n">
-        <v>2190.618379962291</v>
+        <v>1636.530440628163</v>
       </c>
       <c r="W32" t="n">
-        <v>1837.849724692177</v>
+        <v>1636.530440628163</v>
       </c>
       <c r="X32" t="n">
-        <v>1837.849724692177</v>
+        <v>1263.064682367083</v>
       </c>
       <c r="Y32" t="n">
-        <v>1572.822125467577</v>
+        <v>872.925350391271</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>733.2411437123158</v>
+        <v>722.1845715439335</v>
       </c>
       <c r="C33" t="n">
-        <v>558.7881144311888</v>
+        <v>547.7315422628066</v>
       </c>
       <c r="D33" t="n">
-        <v>558.7881144311888</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="E33" t="n">
-        <v>399.5506594257333</v>
+        <v>398.7971326015553</v>
       </c>
       <c r="F33" t="n">
-        <v>253.0161014526182</v>
+        <v>252.2625746284403</v>
       </c>
       <c r="G33" t="n">
-        <v>114.9862139017798</v>
+        <v>114.2326870776019</v>
       </c>
       <c r="H33" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I33" t="n">
         <v>48.81975253256328</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>174.1773125904007</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6806,25 +6806,25 @@
         <v>2383.337730684676</v>
       </c>
       <c r="S33" t="n">
-        <v>2233.996571745931</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2034.6352485931</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U33" t="n">
-        <v>1806.457744662815</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V33" t="n">
-        <v>1571.305636431072</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W33" t="n">
-        <v>1317.068279702871</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X33" t="n">
-        <v>1109.216779497338</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y33" t="n">
-        <v>901.4564807323839</v>
+        <v>890.3999085640016</v>
       </c>
     </row>
     <row r="34">
@@ -6879,31 +6879,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S34" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T34" t="n">
-        <v>222.4139595458764</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U34" t="n">
-        <v>222.4139595458764</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V34" t="n">
-        <v>48.81975253256328</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W34" t="n">
-        <v>48.81975253256328</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256328</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256328</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1263.781575849841</v>
+        <v>1109.504048394587</v>
       </c>
       <c r="C35" t="n">
-        <v>1263.781575849841</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D35" t="n">
-        <v>1263.781575849841</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E35" t="n">
-        <v>877.9933232515971</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F35" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
         <v>48.81975253256327</v>
@@ -6943,7 +6943,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S35" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T35" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U35" t="n">
-        <v>2221.37302195985</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V35" t="n">
-        <v>1890.310134616279</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="W35" t="n">
-        <v>1537.541479346165</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="X35" t="n">
-        <v>1537.541479346165</v>
+        <v>1886.24322043452</v>
       </c>
       <c r="Y35" t="n">
-        <v>1263.781575849841</v>
+        <v>1496.103888458708</v>
       </c>
     </row>
     <row r="36">
@@ -6992,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C36" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D36" t="n">
-        <v>547.7315422628061</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E36" t="n">
-        <v>399.5506594257333</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F36" t="n">
-        <v>253.0161014526182</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H36" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>103.5238282247106</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>339.8150790146477</v>
       </c>
       <c r="L36" t="n">
-        <v>579.2403979088307</v>
+        <v>718.9422221400409</v>
       </c>
       <c r="M36" t="n">
-        <v>1073.643113304393</v>
+        <v>1213.344937535604</v>
       </c>
       <c r="N36" t="n">
-        <v>1596.83821082274</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2009.043832341968</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
         <v>2283.899498973758</v>
@@ -7052,16 +7052,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V36" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W36" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X36" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y36" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="C37" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="D37" t="n">
-        <v>196.7328461149564</v>
+        <v>123.721849281329</v>
       </c>
       <c r="E37" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="F37" t="n">
-        <v>48.81975253256327</v>
+        <v>123.721849281329</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7116,31 +7116,31 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>450.1511924226979</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U37" t="n">
-        <v>450.1511924226979</v>
+        <v>123.721849281329</v>
       </c>
       <c r="V37" t="n">
-        <v>450.1511924226979</v>
+        <v>123.721849281329</v>
       </c>
       <c r="W37" t="n">
-        <v>450.1511924226979</v>
+        <v>123.721849281329</v>
       </c>
       <c r="X37" t="n">
-        <v>450.1511924226979</v>
+        <v>123.721849281329</v>
       </c>
       <c r="Y37" t="n">
-        <v>229.3586132791678</v>
+        <v>123.721849281329</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>736.5727550803538</v>
+        <v>417.782269472975</v>
       </c>
       <c r="C38" t="n">
-        <v>736.5727550803538</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G38" t="n">
-        <v>378.3070564736033</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H38" t="n">
         <v>48.81975253256327</v>
@@ -7174,13 +7174,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S38" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T38" t="n">
-        <v>2217.840572724938</v>
+        <v>2174.53554903222</v>
       </c>
       <c r="U38" t="n">
-        <v>2217.840572724938</v>
+        <v>1920.755855044102</v>
       </c>
       <c r="V38" t="n">
-        <v>1886.777685381367</v>
+        <v>1920.755855044102</v>
       </c>
       <c r="W38" t="n">
-        <v>1886.777685381367</v>
+        <v>1567.987199773988</v>
       </c>
       <c r="X38" t="n">
-        <v>1513.311927120287</v>
+        <v>1194.521441512908</v>
       </c>
       <c r="Y38" t="n">
-        <v>1123.172595144476</v>
+        <v>804.3821095370968</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C39" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D39" t="n">
-        <v>452.6866465491088</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E39" t="n">
-        <v>293.4491915436533</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F39" t="n">
-        <v>293.4491915436533</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G39" t="n">
-        <v>155.4193039928149</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H39" t="n">
         <v>48.81975253256327</v>
@@ -7256,16 +7256,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O39" t="n">
         <v>1970.07121469245</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S39" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="40">
@@ -7356,28 +7356,28 @@
         <v>602.8128707069468</v>
       </c>
       <c r="R40" t="n">
-        <v>450.1511924226979</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="S40" t="n">
-        <v>234.1128111332513</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="T40" t="n">
-        <v>48.81975253256327</v>
+        <v>602.8128707069468</v>
       </c>
       <c r="U40" t="n">
-        <v>48.81975253256327</v>
+        <v>313.6337831843391</v>
       </c>
       <c r="V40" t="n">
-        <v>48.81975253256327</v>
+        <v>313.6337831843391</v>
       </c>
       <c r="W40" t="n">
-        <v>48.81975253256327</v>
+        <v>313.6337831843391</v>
       </c>
       <c r="X40" t="n">
-        <v>48.81975253256327</v>
+        <v>313.6337831843391</v>
       </c>
       <c r="Y40" t="n">
-        <v>48.81975253256327</v>
+        <v>230.468217362803</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>993.5509937775871</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="C41" t="n">
-        <v>624.5884768371754</v>
+        <v>1622.047274456592</v>
       </c>
       <c r="D41" t="n">
-        <v>467.0074184619895</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E41" t="n">
-        <v>467.0074184619895</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F41" t="n">
         <v>467.0074184619895</v>
@@ -7411,25 +7411,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697315</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977586</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540041</v>
       </c>
       <c r="M41" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
       </c>
       <c r="P41" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q41" t="n">
         <v>2440.987626628164</v>
@@ -7447,16 +7447,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V41" t="n">
-        <v>2109.924739284593</v>
+        <v>2343.778446667118</v>
       </c>
       <c r="W41" t="n">
-        <v>1757.156084014479</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="X41" t="n">
-        <v>1383.690325753399</v>
+        <v>1991.009791397003</v>
       </c>
       <c r="Y41" t="n">
-        <v>993.5509937775871</v>
+        <v>1991.009791397003</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>839.8406951725675</v>
+        <v>922.6086434646021</v>
       </c>
       <c r="C42" t="n">
-        <v>665.3876658914405</v>
+        <v>748.1556141834751</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>599.2212045222238</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>439.9837495167684</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>238.3436013083818</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L42" t="n">
-        <v>617.4707444337751</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M42" t="n">
-        <v>1111.873459829338</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N42" t="n">
-        <v>1635.068557347684</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2047.274178866913</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2361.10246314822</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S42" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T42" t="n">
-        <v>2023.578676424718</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U42" t="n">
-        <v>1795.401172494432</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V42" t="n">
-        <v>1560.249064262689</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W42" t="n">
-        <v>1306.011707534488</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X42" t="n">
-        <v>1098.160207328955</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1008.056032192635</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="C43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="D43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="E43" t="n">
-        <v>2157.618085907364</v>
+        <v>48.94946193209694</v>
       </c>
       <c r="F43" t="n">
-        <v>2157.618085907364</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>1988.51787073081</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>1988.51787073081</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q43" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>2403.162327654352</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S43" t="n">
-        <v>2403.162327654352</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T43" t="n">
-        <v>2403.162327654352</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U43" t="n">
-        <v>2403.162327654352</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="V43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="W43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="X43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="Y43" t="n">
-        <v>2157.618085907364</v>
+        <v>196.8625555144901</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1472.955652554598</v>
+        <v>1346.319649047701</v>
       </c>
       <c r="C44" t="n">
-        <v>1103.993135614186</v>
+        <v>977.3571321072895</v>
       </c>
       <c r="D44" t="n">
-        <v>745.7274370074358</v>
+        <v>619.0914335005391</v>
       </c>
       <c r="E44" t="n">
-        <v>745.7274370074358</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="F44" t="n">
-        <v>334.7415322178283</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G44" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H44" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V44" t="n">
-        <v>1859.55549261872</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W44" t="n">
-        <v>1859.55549261872</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X44" t="n">
-        <v>1859.55549261872</v>
+        <v>1736.458981023513</v>
       </c>
       <c r="Y44" t="n">
-        <v>1859.55549261872</v>
+        <v>1346.319649047701</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>957.3366797756757</v>
+        <v>829.5376498283632</v>
       </c>
       <c r="C45" t="n">
-        <v>782.8836504945488</v>
+        <v>655.0846205472362</v>
       </c>
       <c r="D45" t="n">
-        <v>633.9492408332975</v>
+        <v>506.150210885985</v>
       </c>
       <c r="E45" t="n">
         <v>506.150210885985</v>
@@ -7727,10 +7727,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
         <v>540.2677802593125</v>
@@ -7763,16 +7763,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V45" t="n">
-        <v>1795.401172494432</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W45" t="n">
-        <v>1541.163815766231</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X45" t="n">
-        <v>1333.312315560698</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>1125.552016795744</v>
+        <v>997.7529868484312</v>
       </c>
     </row>
     <row r="46">
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>346.8494855272921</v>
+        <v>365.6690290428633</v>
       </c>
       <c r="C46" t="n">
-        <v>346.8494855272921</v>
+        <v>196.7328461149564</v>
       </c>
       <c r="D46" t="n">
         <v>196.7328461149564</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>574.5867184041136</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>346.8494855272921</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U46" t="n">
-        <v>346.8494855272921</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V46" t="n">
-        <v>346.8494855272921</v>
+        <v>586.4616081863934</v>
       </c>
       <c r="W46" t="n">
-        <v>346.8494855272921</v>
+        <v>586.4616081863934</v>
       </c>
       <c r="X46" t="n">
-        <v>346.8494855272921</v>
+        <v>586.4616081863934</v>
       </c>
       <c r="Y46" t="n">
-        <v>346.8494855272921</v>
+        <v>365.6690290428633</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,13 +8537,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>222.4246658592332</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.8033201453156</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8786,7 +8786,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>193.2401765302593</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>74.42821185443506</v>
+        <v>251.2968779656277</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9257,10 +9257,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>260.9356492070019</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9494,7 +9494,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>203.8252941185856</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9725,7 +9725,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>275.6680385918563</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>180.8033201453154</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.3053491854098</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10682,7 +10682,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>279.0964881858782</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>251.2968779656277</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>251.2968779656277</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.7899022166373</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>113.9036518071727</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,13 +23336,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>61.77024252613229</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>116.4795623923481</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>81.74758393505803</v>
       </c>
       <c r="T13" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>239.0477053310879</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>42.54880489438295</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>54.28346730177572</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23576,13 +23576,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>91.21612896867116</v>
       </c>
     </row>
     <row r="16">
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.4092130247883</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>151.1350615014064</v>
@@ -23706,16 +23706,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>71.50367393086282</v>
+        <v>74.46239723693429</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>125.4889390439866</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>55.39365903936607</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23782,10 +23782,10 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23873,10 +23873,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>58.15164275350926</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>198.4198312014622</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>167.4092130247883</v>
@@ -23937,10 +23937,10 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
-        <v>65.40012264862716</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
         <v>225.4598605480533</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>97.9457550174279</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>160.4752923549255</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>322.1828426512662</v>
+        <v>326.9451065060316</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24047,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>97.39144430711957</v>
+        <v>198.4198312014622</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24171,28 +24171,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>42.83233239657469</v>
+        <v>178.234362383534</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H23" t="n">
-        <v>269.4260903920033</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.4184586216305</v>
+        <v>59.25482521133844</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>61.77024252613231</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>58.24193217968241</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>130.7764929906324</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24417,13 +24417,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>171.3450620358009</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>73.80761147774723</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>358.689095290165</v>
       </c>
     </row>
     <row r="27">
@@ -24536,10 +24536,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>61.77024252613235</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>65.50479675552441</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>198.4198312014621</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>33.26960522982978</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24654,13 +24654,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>203.8497504551221</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>148.2765432732407</v>
       </c>
       <c r="G29" t="n">
-        <v>135.2022625522151</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
         <v>160.4752923549255</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>13.32185961795372</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>141.3464342174087</v>
       </c>
     </row>
     <row r="31">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>177.1719676793474</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>175.2684795173875</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24919,16 +24919,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>106.1698378371993</v>
       </c>
       <c r="G32" t="n">
         <v>414.005789270132</v>
@@ -24937,7 +24937,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>123.8606154237001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25001,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>40.77475074606097</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>10.94600644669799</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25119,31 +25119,31 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>80.27937838064801</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>99.03939889391013</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>104.0018546815778</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
         <v>326.1924309016296</v>
@@ -25204,25 +25204,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>115.2156341946929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,10 +25238,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>10.94600644669885</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>92.88627525581313</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.532470689368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.4092130247883</v>
+        <v>93.25613724351025</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,19 +25356,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25393,10 +25393,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25408,7 +25408,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I38" t="n">
         <v>160.4752923549255</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>175.968736710675</v>
+        <v>22.03059454762266</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25475,19 +25475,19 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>53.35061880807848</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
         <v>65.50479675552441</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>35.81287827175959</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>42.01973253337215</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>136.250743188774</v>
       </c>
     </row>
     <row r="41">
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>198.6777938292489</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25687,16 +25687,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>231.5151703086997</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,13 +25706,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>141.3464342174087</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25727,7 +25727,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25775,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>145.2926357173929</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J43" t="n">
         <v>52.22830032617343</v>
@@ -25830,22 +25830,22 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>9.048843994309379</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0291291705208</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>130.9432273817196</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>31.12404080756154</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -26003,7 +26003,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>106.2795475015858</v>
       </c>
     </row>
     <row r="46">
@@ -26025,10 +26025,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>148.487060712674</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>198.5028474444068</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>555841.906587868</v>
+        <v>555841.9065878679</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>555841.9065878681</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>555841.906587868</v>
+        <v>555841.9065878679</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>555841.9065878681</v>
+        <v>555841.9065878679</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>595255.2831516053</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="F2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="G2" t="n">
         <v>393156.4705133699</v>
       </c>
       <c r="H2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133698</v>
       </c>
       <c r="I2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.47051337</v>
       </c>
       <c r="J2" t="n">
-        <v>393156.47051337</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="K2" t="n">
         <v>393156.4705133699</v>
       </c>
       <c r="L2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.47051337</v>
       </c>
       <c r="M2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="N2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133698</v>
       </c>
       <c r="O2" t="n">
-        <v>393156.4705133698</v>
+        <v>393156.4705133701</v>
       </c>
       <c r="P2" t="n">
-        <v>393156.4705133699</v>
+        <v>393156.4705133701</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9.374401997774843e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="C4" t="n">
-        <v>279125.0601321634</v>
+        <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
         <v>279125.0601321633</v>
@@ -26429,13 +26429,13 @@
         <v>463.7092767442726</v>
       </c>
       <c r="F4" t="n">
-        <v>463.7092767442725</v>
+        <v>463.7092767442726</v>
       </c>
       <c r="G4" t="n">
         <v>463.7092767442726</v>
       </c>
       <c r="H4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="I4" t="n">
         <v>463.7092767442726</v>
@@ -26524,46 +26524,46 @@
         <v>187079.5227241325</v>
       </c>
       <c r="C6" t="n">
-        <v>267848.9542556802</v>
+        <v>267848.9542556801</v>
       </c>
       <c r="D6" t="n">
-        <v>267848.9542556803</v>
+        <v>267848.9542556804</v>
       </c>
       <c r="E6" t="n">
-        <v>-20878.57591649292</v>
+        <v>-27847.50049022501</v>
       </c>
       <c r="F6" t="n">
-        <v>348556.7232162871</v>
+        <v>341587.7986425551</v>
       </c>
       <c r="G6" t="n">
-        <v>348556.7232162871</v>
+        <v>341587.798642555</v>
       </c>
       <c r="H6" t="n">
-        <v>348556.7232162872</v>
+        <v>341587.7986425549</v>
       </c>
       <c r="I6" t="n">
-        <v>348556.7232162872</v>
+        <v>341587.7986425551</v>
       </c>
       <c r="J6" t="n">
-        <v>285496.7806171811</v>
+        <v>278527.8560434489</v>
       </c>
       <c r="K6" t="n">
-        <v>348556.7232162872</v>
+        <v>341587.798642555</v>
       </c>
       <c r="L6" t="n">
-        <v>348556.7232162872</v>
+        <v>341587.7986425551</v>
       </c>
       <c r="M6" t="n">
-        <v>256542.4779351941</v>
+        <v>249573.5533614621</v>
       </c>
       <c r="N6" t="n">
-        <v>348556.7232162872</v>
+        <v>341587.7986425549</v>
       </c>
       <c r="O6" t="n">
-        <v>348556.7232162871</v>
+        <v>341587.7986425551</v>
       </c>
       <c r="P6" t="n">
-        <v>348556.7232162873</v>
+        <v>341587.7986425551</v>
       </c>
     </row>
   </sheetData>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.205731028013953e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27402,7 +27402,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>178.7732843553443</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>186.2617493458957</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27511,22 +27511,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>159.3315780361292</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>99.74187743235977</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>149.3681997291715</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,25 +27660,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>131.1616962950334</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>150.2763745353532</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>135.0341266295844</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,7 +27794,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>132.5822199426737</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27909,7 +27909,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>169.5702675696171</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>107.2027145156362</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,13 +27991,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>80.19884613494011</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>37.69799725872717</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H11" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I11" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J11" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K11" t="n">
         <v>164.9766803203078</v>
@@ -31773,7 +31773,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N11" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O11" t="n">
         <v>218.5211886152591</v>
@@ -31785,13 +31785,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R11" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S11" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T11" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U11" t="n">
         <v>0.1037558596002446</v>
@@ -31831,25 +31831,25 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H12" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I12" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>65.56102437472366</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L12" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M12" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N12" t="n">
         <v>180.479234222958</v>
@@ -31861,10 +31861,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R12" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S12" t="n">
         <v>12.88941730778304</v>
@@ -31873,7 +31873,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,40 +31910,40 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H13" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I13" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J13" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K13" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L13" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M13" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N13" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O13" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P13" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R13" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S13" t="n">
         <v>10.13860056042011</v>
@@ -31952,7 +31952,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
-        <v>132.5099057252086</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>88.57936276876457</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571342</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R21" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L22" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P22" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>112.054233062727</v>
@@ -32797,7 +32797,7 @@
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>175.8256523897584</v>
+        <v>50.60306028008051</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -33037,13 +33037,13 @@
         <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
-        <v>180.479234222958</v>
+        <v>55.25664211328007</v>
       </c>
       <c r="O27" t="n">
         <v>165.1032398336026</v>
       </c>
       <c r="P27" t="n">
-        <v>7.287313615530792</v>
+        <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
         <v>88.57936276876457</v>
@@ -33262,13 +33262,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571341</v>
       </c>
       <c r="M30" t="n">
         <v>175.8256523897584</v>
@@ -33499,13 +33499,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>150.670744704085</v>
+        <v>137.5023856571341</v>
       </c>
       <c r="M33" t="n">
         <v>175.8256523897584</v>
@@ -33736,19 +33736,19 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472367</v>
+        <v>56.00323343953796</v>
       </c>
       <c r="K36" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
         <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
-        <v>180.479234222958</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>165.1032398336026</v>
@@ -33973,10 +33973,10 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>112.054233062727</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
@@ -33988,7 +33988,7 @@
         <v>180.479234222958</v>
       </c>
       <c r="O39" t="n">
-        <v>39.88064772392477</v>
+        <v>165.1032398336026</v>
       </c>
       <c r="P39" t="n">
         <v>132.5099057252086</v>
@@ -34131,7 +34131,7 @@
         <v>50.00059721548043</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093279</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34210,7 +34210,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -34231,7 +34231,7 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>10.59657067334763</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R42" t="n">
         <v>43.0844371685896</v>
@@ -34447,13 +34447,13 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J45" t="n">
-        <v>65.56102437472367</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L45" t="n">
-        <v>150.670744704085</v>
+        <v>25.44815259440708</v>
       </c>
       <c r="M45" t="n">
         <v>175.8256523897584</v>
@@ -34707,7 +34707,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
         <v>207.9338608153932</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N6" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35257,13 +35257,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K11" t="n">
         <v>269.032241846492</v>
@@ -35418,7 +35418,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M11" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N11" t="n">
         <v>439.3515785419015</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L12" t="n">
-        <v>192.9196850695264</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M12" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N12" t="n">
         <v>528.4798964831782</v>
@@ -35506,7 +35506,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q12" t="n">
         <v>158.6748764185921</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L13" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M13" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N13" t="n">
         <v>133.158287785359</v>
@@ -35585,7 +35585,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P13" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>48.64100594280298</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
         <v>528.4798964831782</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35977,10 +35977,10 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>316.9982669508155</v>
+        <v>126.9612417926717</v>
       </c>
       <c r="Q18" t="n">
         <v>158.6748764185921</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>382.95671022767</v>
+        <v>369.7883511807192</v>
       </c>
       <c r="M21" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O21" t="n">
-        <v>226.3322895077438</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
         <v>316.9982669508155</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36445,7 +36445,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>309.3596570595963</v>
+        <v>374.1740901080621</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36685,13 +36685,13 @@
         <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O27" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
         <v>158.6748764185921</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>192.9196850695263</v>
+        <v>369.7883511807191</v>
       </c>
       <c r="M30" t="n">
         <v>499.39668221774</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009466</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>382.95671022767</v>
+        <v>369.7883511807191</v>
       </c>
       <c r="M33" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250345</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.81443304846582</v>
+        <v>55.2566421132801</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
         <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6319864967566</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
         <v>158.6748764185921</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
@@ -37636,7 +37636,7 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>291.1467225562099</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471535</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37800,7 +37800,7 @@
         <v>277.0684912329592</v>
       </c>
       <c r="Q41" t="n">
-        <v>130.0651205780289</v>
+        <v>130.0651205780292</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.69208432317521</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M45" t="n">
         <v>499.39668221774</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_0_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2274404.088453911</v>
+        <v>2309722.843779678</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>208638.8874907337</v>
+        <v>225367.7292238136</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478714</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>183.4693513325733</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>87.11878864677688</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>105.9408183449446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>57.16776090941369</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -943,22 +943,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>218.0792724223796</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>22.43212445296252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>145.1806198985548</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>50.29171516770226</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>200.160833108852</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>5.032729720860218</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7.837102735344149</v>
       </c>
     </row>
     <row r="10">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>90.51206582944629</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>103.5148068144577</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1451,10 +1451,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>56.22893659596764</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1469,7 +1469,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>34.3807559479629</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1508,7 +1508,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>132.1304135414941</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1609,22 +1609,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>352.5925784399357</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>162.2483321813616</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,7 +1688,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>106.1515809526317</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1739,7 +1739,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>114.4665668086332</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>150.997463311119</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>47.239591316294</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>229.1941025766964</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>170.6895663378222</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>25.94935617649208</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
@@ -1982,13 +1982,13 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>7.353154002015296</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73.91737409206834</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>154.1918883064001</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>93.85998023750959</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
         <v>251.2418970482362</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>22.29586221138139</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2168,10 +2168,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
@@ -2180,7 +2180,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V21" t="n">
-        <v>34.38075594796302</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>80.79258128802695</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>73.903280940294</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>239.9759182222923</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,25 +2365,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>158.163633410292</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2405,13 +2405,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>38.78966489179808</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>78.40765649564759</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S24" t="n">
         <v>158.7937537960548</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>132.1304135414939</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>80.79258128802711</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>227.2561266659995</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>27.54884336588864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,10 +2633,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>75.3170546811963</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2654,7 +2654,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
         <v>158.7937537960548</v>
@@ -2690,7 +2690,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U27" t="n">
-        <v>27.47589768952058</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>146.5623749521075</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>146.5623749521073</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2797,16 +2797,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>258.5995024684707</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>262.6530525005066</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
@@ -2939,7 +2939,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>64.33626155989568</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>47.47529300550314</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>111.0188171299941</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>300.7062079045122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>47.69615615758161</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3116,7 +3116,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -3125,10 +3125,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>64.7588051995882</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T33" t="n">
-        <v>197.3677099213027</v>
+        <v>99.9762656141835</v>
       </c>
       <c r="U33" t="n">
         <v>225.8957288909827</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>142.5581954067068</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.5452544581847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>261.2710370894298</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>15.32002040442422</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3356,13 +3356,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
         <v>158.7937537960548</v>
@@ -3401,10 +3401,10 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8957288909827</v>
+        <v>172.5451100829044</v>
       </c>
       <c r="V36" t="n">
-        <v>139.9143118936121</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.15307578127808</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>73.66757925108466</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,10 +3514,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.3996927459763</v>
+        <v>59.42051062738445</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>195.3878640740078</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3587,7 +3587,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3599,10 +3599,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S39" t="n">
-        <v>158.7937537960548</v>
+        <v>42.31419140370699</v>
       </c>
       <c r="T39" t="n">
         <v>197.3677099213027</v>
@@ -3641,7 +3641,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>196.9877088776657</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3705,22 +3705,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>220.8871739987542</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.33391016332075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>26.33248130708715</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3757,10 +3757,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>96.23708816143525</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>25.18674943245865</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3836,7 +3836,7 @@
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>73.64690839405425</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.12841230553833</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>225.4598605480533</v>
@@ -3957,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>108.3027291048315</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>77.90124090174093</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>47.69615615758161</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4124,7 +4124,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>99.40314827571861</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.141326929176249</v>
       </c>
       <c r="V46" t="n">
-        <v>53.63479587942117</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>525.1941863946997</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="C2" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>281.7454097505996</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4369,13 +4369,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>768.6429630387997</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y2" t="n">
-        <v>525.1941863946997</v>
+        <v>223.6192102101089</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>649.1947276839472</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="C3" t="n">
-        <v>474.7416984028202</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D3" t="n">
-        <v>325.807288741569</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>166.5698337361135</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,13 +4412,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N3" t="n">
         <v>725.4530095217538</v>
@@ -4448,13 +4448,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>876.0583790997505</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="Y3" t="n">
-        <v>649.1947276839472</v>
+        <v>668.2068788942177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>53.75394372784808</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
         <v>46.80844297864461</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>274.0360370837871</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y5" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>156.0631229240681</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C6" t="n">
-        <v>133.4044113554191</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>133.4044113554191</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>133.4044113554191</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4652,46 +4652,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="W6" t="n">
-        <v>156.0631229240681</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="X6" t="n">
-        <v>156.0631229240681</v>
+        <v>817.4100647040152</v>
       </c>
       <c r="Y6" t="n">
-        <v>156.0631229240681</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>742.8341567219593</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>499.3853800778592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>255.9366034337592</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>253.395163045047</v>
+        <v>787.9255531013317</v>
       </c>
       <c r="C9" t="n">
-        <v>253.395163045047</v>
+        <v>613.4725238202047</v>
       </c>
       <c r="D9" t="n">
-        <v>253.395163045047</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E9" t="n">
-        <v>253.395163045047</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>253.395163045047</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>114.6643376276625</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>461.2466632505798</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>253.395163045047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>253.395163045047</v>
+        <v>956.1408901213997</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1572.822125467577</v>
+        <v>1664.24845458823</v>
       </c>
       <c r="C11" t="n">
-        <v>1203.859608527166</v>
+        <v>1295.285937647818</v>
       </c>
       <c r="D11" t="n">
-        <v>845.5939099204151</v>
+        <v>937.020239041068</v>
       </c>
       <c r="E11" t="n">
-        <v>459.8056573221708</v>
+        <v>551.2319864428237</v>
       </c>
       <c r="F11" t="n">
-        <v>48.81975253256327</v>
+        <v>140.2460816532161</v>
       </c>
       <c r="G11" t="n">
-        <v>48.81975253256327</v>
+        <v>140.2460816532161</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5071,22 +5071,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2336.427215704469</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U11" t="n">
-        <v>2336.427215704469</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V11" t="n">
-        <v>2336.427215704469</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W11" t="n">
-        <v>2336.427215704469</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X11" t="n">
-        <v>1962.961457443389</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Y11" t="n">
-        <v>1572.822125467577</v>
+        <v>2050.848294652352</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>722.1845715439331</v>
+        <v>957.3366797756757</v>
       </c>
       <c r="C12" t="n">
-        <v>665.3876658914405</v>
+        <v>782.8836504945488</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>633.9492408332975</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>474.711785827842</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>328.177227854727</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>190.1473403038886</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>83.54778884363691</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K12" t="n">
-        <v>285.1110033225004</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L12" t="n">
-        <v>664.2381464478937</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N12" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O12" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
@@ -5156,16 +5156,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1560.249064262689</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="W12" t="n">
-        <v>1306.011707534488</v>
+        <v>1541.163815766231</v>
       </c>
       <c r="X12" t="n">
-        <v>1098.160207328955</v>
+        <v>1333.312315560698</v>
       </c>
       <c r="Y12" t="n">
-        <v>890.3999085640012</v>
+        <v>1125.552016795744</v>
       </c>
     </row>
     <row r="13">
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
         <v>48.81975253256327</v>
@@ -5226,25 +5226,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>507.1731054974308</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="T13" t="n">
-        <v>507.1731054974308</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U13" t="n">
-        <v>507.1731054974308</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V13" t="n">
-        <v>507.1731054974308</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W13" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X13" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y13" t="n">
-        <v>217.7559354604702</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>773.9363891092737</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C14" t="n">
-        <v>404.973872168862</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D14" t="n">
-        <v>404.973872168862</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E14" t="n">
-        <v>404.973872168862</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F14" t="n">
-        <v>48.81975253256327</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G14" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
         <v>48.81975253256327</v>
@@ -5278,13 +5278,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J14" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5308,22 +5308,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2221.37302195985</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>2221.37302195985</v>
+        <v>2277.100422404566</v>
       </c>
       <c r="V14" t="n">
-        <v>1890.310134616279</v>
+        <v>1946.037535060995</v>
       </c>
       <c r="W14" t="n">
-        <v>1537.541479346165</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="X14" t="n">
-        <v>1164.075721085085</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="Y14" t="n">
-        <v>773.9363891092737</v>
+        <v>1593.268879790881</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>814.3220755526918</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C15" t="n">
         <v>814.3220755526918</v>
@@ -5360,7 +5360,7 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
         <v>540.2677802593125</v>
@@ -5387,22 +5387,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2023.578676424718</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U15" t="n">
-        <v>1795.401172494432</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V15" t="n">
-        <v>1560.249064262689</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W15" t="n">
-        <v>1306.011707534488</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X15" t="n">
-        <v>1098.160207328955</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y15" t="n">
-        <v>982.5374125727599</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="16">
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C16" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D16" t="n">
         <v>48.81975253256327</v>
@@ -5466,22 +5466,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="T16" t="n">
-        <v>488.1154794675067</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U16" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V16" t="n">
-        <v>198.936391944899</v>
+        <v>385.9536814748714</v>
       </c>
       <c r="W16" t="n">
-        <v>198.936391944899</v>
+        <v>96.53651143791075</v>
       </c>
       <c r="X16" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.936391944899</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1478.465034713924</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="C17" t="n">
-        <v>1109.502517773513</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="D17" t="n">
-        <v>877.9933232515971</v>
+        <v>1593.268879790881</v>
       </c>
       <c r="E17" t="n">
-        <v>877.9933232515971</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F17" t="n">
-        <v>467.0074184619895</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G17" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H17" t="n">
         <v>48.81975253256327</v>
@@ -5515,13 +5515,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K17" t="n">
-        <v>412.3079679977591</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540047</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T17" t="n">
-        <v>2221.37302195985</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U17" t="n">
-        <v>2221.37302195985</v>
+        <v>1979.868719855003</v>
       </c>
       <c r="V17" t="n">
-        <v>2221.37302195985</v>
+        <v>1979.868719855003</v>
       </c>
       <c r="W17" t="n">
-        <v>1868.604366689736</v>
+        <v>1979.868719855003</v>
       </c>
       <c r="X17" t="n">
-        <v>1868.604366689736</v>
+        <v>1979.868719855003</v>
       </c>
       <c r="Y17" t="n">
-        <v>1478.465034713924</v>
+        <v>1979.868719855003</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>922.6086434646021</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C18" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D18" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E18" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F18" t="n">
-        <v>293.4491915436533</v>
+        <v>359.61565291287</v>
       </c>
       <c r="G18" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620316</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,49 +5597,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>349.2772920404814</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658748</v>
+        <v>728.4044351658747</v>
       </c>
       <c r="M18" t="n">
         <v>1222.807150561437</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079784</v>
+        <v>1746.002248079783</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599013</v>
+        <v>2158.207869599012</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2371.593068114834</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2414.776155742818</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2254.378424635692</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2055.017101482861</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X18" t="n">
-        <v>1298.584279249624</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y18" t="n">
-        <v>1090.82398048467</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="C19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="D19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="E19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="G19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039364</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581505</v>
+        <v>412.9009368039364</v>
       </c>
       <c r="V19" t="n">
-        <v>195.7097000304736</v>
+        <v>412.9009368039364</v>
       </c>
       <c r="W19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="X19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.7097000304736</v>
+        <v>123.4837667669757</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1593.268879790881</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="C20" t="n">
-        <v>1593.268879790881</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="D20" t="n">
-        <v>1593.268879790881</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="E20" t="n">
-        <v>1207.480627192637</v>
+        <v>1040.089578155562</v>
       </c>
       <c r="F20" t="n">
-        <v>796.4947224030295</v>
+        <v>629.1036733659547</v>
       </c>
       <c r="G20" t="n">
-        <v>378.3070564736033</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H20" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
@@ -5758,7 +5758,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S20" t="n">
-        <v>2259.7089786956</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T20" t="n">
-        <v>2259.7089786956</v>
+        <v>2152.282423226541</v>
       </c>
       <c r="U20" t="n">
-        <v>2005.929284707482</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="V20" t="n">
-        <v>2005.929284707482</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="W20" t="n">
-        <v>1983.408211766693</v>
+        <v>1898.502729238423</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.408211766693</v>
+        <v>1525.036970977343</v>
       </c>
       <c r="Y20" t="n">
-        <v>1593.268879790881</v>
+        <v>1134.897639001532</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E21" t="n">
-        <v>439.9837495167684</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F21" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G21" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5837,7 +5837,7 @@
         <v>174.1773125904007</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593126</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M21" t="n">
         <v>1034.670495654875</v>
@@ -5867,16 +5867,16 @@
         <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
       <c r="C22" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
       <c r="D22" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
       <c r="E22" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
       <c r="F22" t="n">
         <v>48.81975253256327</v>
@@ -5943,19 +5943,19 @@
         <v>640.638169680758</v>
       </c>
       <c r="U22" t="n">
-        <v>351.4590821581503</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V22" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W22" t="n">
-        <v>276.8093034305806</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X22" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y22" t="n">
-        <v>48.81975253256327</v>
+        <v>130.4284205002673</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1309.654914773927</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="C23" t="n">
-        <v>1309.654914773927</v>
+        <v>702.2055747184256</v>
       </c>
       <c r="D23" t="n">
-        <v>951.3892161671761</v>
+        <v>702.2055747184256</v>
       </c>
       <c r="E23" t="n">
-        <v>951.3892161671761</v>
+        <v>702.2055747184256</v>
       </c>
       <c r="F23" t="n">
-        <v>540.4033113775685</v>
+        <v>291.2196699288181</v>
       </c>
       <c r="G23" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H23" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I23" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J23" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K23" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
         <v>795.0052981540045</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2371.897027894855</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S23" t="n">
-        <v>2190.618379962291</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T23" t="n">
-        <v>2030.857134093309</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="U23" t="n">
-        <v>2030.857134093309</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="V23" t="n">
-        <v>1699.794246749738</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="W23" t="n">
-        <v>1699.794246749738</v>
+        <v>2221.373021959851</v>
       </c>
       <c r="X23" t="n">
-        <v>1699.794246749738</v>
+        <v>1847.907263698771</v>
       </c>
       <c r="Y23" t="n">
-        <v>1309.654914773927</v>
+        <v>1457.767931722959</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>929.9448703088869</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>755.49184102776</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>606.5574313665087</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>447.3199763610532</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="F24" t="n">
-        <v>300.7854183879382</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G24" t="n">
         <v>221.5857653620315</v>
@@ -6068,13 +6068,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K24" t="n">
-        <v>285.1110033225004</v>
+        <v>161.1406371339194</v>
       </c>
       <c r="L24" t="n">
-        <v>664.2381464478937</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M24" t="n">
         <v>1034.670495654875</v>
@@ -6113,7 +6113,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1098.160207328955</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>182.2848167158905</v>
       </c>
       <c r="D25" t="n">
         <v>48.81975253256327</v>
@@ -6156,43 +6156,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M25" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N25" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O25" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U25" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V25" t="n">
-        <v>559.0295017130541</v>
+        <v>640.638169680758</v>
       </c>
       <c r="W25" t="n">
-        <v>269.6123316760934</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="X25" t="n">
-        <v>269.6123316760934</v>
+        <v>351.2209996437974</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>351.2209996437974</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>954.9699586415231</v>
+        <v>1605.221538798759</v>
       </c>
       <c r="C26" t="n">
-        <v>954.9699586415231</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D26" t="n">
-        <v>596.7042600347727</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E26" t="n">
-        <v>210.9160074365284</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F26" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H26" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I26" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
@@ -6253,25 +6253,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2040.094374027286</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V26" t="n">
-        <v>1709.031486683716</v>
+        <v>1991.821378862881</v>
       </c>
       <c r="W26" t="n">
-        <v>1356.262831413602</v>
+        <v>1991.821378862881</v>
       </c>
       <c r="X26" t="n">
-        <v>982.7970731525218</v>
+        <v>1991.821378862881</v>
       </c>
       <c r="Y26" t="n">
-        <v>954.9699586415231</v>
+        <v>1991.821378862881</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>922.6086434646021</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="C27" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K27" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L27" t="n">
-        <v>664.2381464478937</v>
+        <v>579.2403979088306</v>
       </c>
       <c r="M27" t="n">
-        <v>1158.640861843456</v>
+        <v>1073.643113304393</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.865593173221</v>
+        <v>1596.838210822739</v>
       </c>
       <c r="O27" t="n">
         <v>1970.07121469245</v>
@@ -6338,19 +6338,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="C28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="D28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="E28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="F28" t="n">
-        <v>48.81975253256327</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="G28" t="n">
         <v>48.81975253256327</v>
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O28" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>424.5997883913116</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="U28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="V28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="W28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="X28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.8625555144901</v>
+        <v>196.8625555144898</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1482.969806655666</v>
+        <v>1161.83622067797</v>
       </c>
       <c r="C29" t="n">
-        <v>1114.007289715255</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D29" t="n">
-        <v>1114.007289715255</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E29" t="n">
-        <v>728.2190371170104</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F29" t="n">
-        <v>467.0074184619895</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G29" t="n">
         <v>48.81975253256327</v>
@@ -6463,10 +6463,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6490,25 +6490,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T29" t="n">
-        <v>2259.7089786956</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U29" t="n">
-        <v>2259.7089786956</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="V29" t="n">
-        <v>2259.7089786956</v>
+        <v>2187.207932640047</v>
       </c>
       <c r="W29" t="n">
-        <v>2259.7089786956</v>
+        <v>1921.901819003171</v>
       </c>
       <c r="X29" t="n">
-        <v>2259.7089786956</v>
+        <v>1548.436060742092</v>
       </c>
       <c r="Y29" t="n">
-        <v>1869.569646719788</v>
+        <v>1548.436060742092</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>922.6086434646021</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C30" t="n">
-        <v>748.1556141834751</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D30" t="n">
-        <v>599.2212045222238</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E30" t="n">
-        <v>439.9837495167684</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F30" t="n">
-        <v>293.4491915436533</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G30" t="n">
-        <v>155.4193039928149</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,16 +6542,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K30" t="n">
-        <v>174.1773125904007</v>
+        <v>238.3436013083818</v>
       </c>
       <c r="L30" t="n">
-        <v>540.2677802593125</v>
+        <v>617.4707444337751</v>
       </c>
       <c r="M30" t="n">
-        <v>1034.670495654875</v>
+        <v>1111.873459829338</v>
       </c>
       <c r="N30" t="n">
         <v>1557.865593173221</v>
@@ -6566,28 +6566,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S30" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T30" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U30" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V30" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W30" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X30" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y30" t="n">
-        <v>1090.82398048467</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>346.8494855272921</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="C31" t="n">
-        <v>346.8494855272921</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="D31" t="n">
-        <v>196.7328461149564</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="E31" t="n">
-        <v>48.81975253256327</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="F31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O31" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T31" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U31" t="n">
-        <v>528.4979503575319</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V31" t="n">
-        <v>528.4979503575319</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="W31" t="n">
-        <v>528.4979503575319</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="X31" t="n">
-        <v>528.4979503575319</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="Y31" t="n">
-        <v>528.4979503575319</v>
+        <v>96.77459395226342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>872.925350391271</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C32" t="n">
-        <v>872.925350391271</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>514.6596517845205</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>514.6596517845205</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>210.9160074365284</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I32" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977593</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.005298154005</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N32" t="n">
         <v>1672.394424063531</v>
@@ -6718,7 +6718,7 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255915</v>
+        <v>2312.223157255914</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
@@ -6730,22 +6730,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T32" t="n">
-        <v>2221.373021959851</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>1967.593327971733</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="V32" t="n">
-        <v>1636.530440628163</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="W32" t="n">
-        <v>1636.530440628163</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="X32" t="n">
-        <v>1263.064682367083</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="Y32" t="n">
-        <v>872.925350391271</v>
+        <v>2019.343932854375</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.1845715439335</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C33" t="n">
-        <v>547.7315422628066</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D33" t="n">
-        <v>398.7971326015553</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E33" t="n">
-        <v>398.7971326015553</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F33" t="n">
-        <v>252.2625746284403</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G33" t="n">
-        <v>114.2326870776019</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H33" t="n">
-        <v>48.81975253256328</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K33" t="n">
         <v>174.1773125904007</v>
       </c>
       <c r="L33" t="n">
-        <v>540.2677802593125</v>
+        <v>553.3044557157939</v>
       </c>
       <c r="M33" t="n">
-        <v>1034.670495654875</v>
+        <v>1047.707171111356</v>
       </c>
       <c r="N33" t="n">
         <v>1557.865593173221</v>
@@ -6803,28 +6803,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R33" t="n">
-        <v>2383.337730684676</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S33" t="n">
         <v>2222.939999577549</v>
       </c>
       <c r="T33" t="n">
-        <v>2023.578676424718</v>
+        <v>2121.953872694535</v>
       </c>
       <c r="U33" t="n">
-        <v>1795.401172494433</v>
+        <v>1893.77636876425</v>
       </c>
       <c r="V33" t="n">
-        <v>1560.24906426269</v>
+        <v>1658.624260532507</v>
       </c>
       <c r="W33" t="n">
-        <v>1306.011707534488</v>
+        <v>1404.386903804306</v>
       </c>
       <c r="X33" t="n">
-        <v>1098.160207328955</v>
+        <v>1196.535403598773</v>
       </c>
       <c r="Y33" t="n">
-        <v>890.3999085640016</v>
+        <v>988.7751048338188</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256328</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G34" t="n">
-        <v>48.81975253256328</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>48.81975253256328</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>93.68771932371202</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N34" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O34" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V34" t="n">
-        <v>640.6381696807582</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="W34" t="n">
-        <v>351.2209996437976</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="X34" t="n">
-        <v>351.2209996437976</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="Y34" t="n">
-        <v>230.468217362803</v>
+        <v>351.4590821581503</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1109.504048394587</v>
+        <v>938.1442229836907</v>
       </c>
       <c r="C35" t="n">
-        <v>845.5939099204151</v>
+        <v>569.181706043279</v>
       </c>
       <c r="D35" t="n">
-        <v>845.5939099204151</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="E35" t="n">
-        <v>459.8056573221708</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="F35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="G35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="H35" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I35" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6961,28 +6961,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2259.7089786956</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T35" t="n">
-        <v>2259.7089786956</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U35" t="n">
-        <v>2259.7089786956</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V35" t="n">
-        <v>2259.7089786956</v>
+        <v>1701.749313220582</v>
       </c>
       <c r="W35" t="n">
-        <v>2259.7089786956</v>
+        <v>1701.749313220582</v>
       </c>
       <c r="X35" t="n">
-        <v>1886.24322043452</v>
+        <v>1328.283554959502</v>
       </c>
       <c r="Y35" t="n">
-        <v>1496.103888458708</v>
+        <v>938.1442229836907</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>816.0090920043505</v>
+        <v>776.0740854914872</v>
       </c>
       <c r="C36" t="n">
-        <v>641.5560627232235</v>
+        <v>601.6210562103602</v>
       </c>
       <c r="D36" t="n">
-        <v>492.6216530619722</v>
+        <v>452.6866465491088</v>
       </c>
       <c r="E36" t="n">
-        <v>333.3841980565167</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="F36" t="n">
-        <v>186.8496400834017</v>
+        <v>293.4491915436533</v>
       </c>
       <c r="G36" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H36" t="n">
         <v>48.81975253256327</v>
@@ -7016,13 +7016,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>103.5238282247106</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K36" t="n">
-        <v>339.8150790146477</v>
+        <v>339.8150790146478</v>
       </c>
       <c r="L36" t="n">
-        <v>718.9422221400409</v>
+        <v>718.9422221400411</v>
       </c>
       <c r="M36" t="n">
         <v>1213.344937535604</v>
@@ -7049,19 +7049,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1795.401172494432</v>
+        <v>1849.290686441986</v>
       </c>
       <c r="V36" t="n">
-        <v>1654.073584723107</v>
+        <v>1614.138578210243</v>
       </c>
       <c r="W36" t="n">
-        <v>1399.836227994905</v>
+        <v>1359.901221482042</v>
       </c>
       <c r="X36" t="n">
-        <v>1191.984727789372</v>
+        <v>1152.049721276509</v>
       </c>
       <c r="Y36" t="n">
-        <v>984.2244290244184</v>
+        <v>944.2894225115551</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G37" t="n">
         <v>48.81975253256327</v>
@@ -7104,43 +7104,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>412.9009368039367</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U37" t="n">
-        <v>123.721849281329</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="V37" t="n">
-        <v>123.721849281329</v>
+        <v>566.2264734675412</v>
       </c>
       <c r="W37" t="n">
-        <v>123.721849281329</v>
+        <v>276.8093034305806</v>
       </c>
       <c r="X37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y37" t="n">
-        <v>123.721849281329</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>417.782269472975</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="C38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7198,28 +7198,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2380.966908822725</v>
       </c>
       <c r="S38" t="n">
-        <v>2371.897027894854</v>
+        <v>2380.966908822725</v>
       </c>
       <c r="T38" t="n">
-        <v>2174.53554903222</v>
+        <v>2380.966908822725</v>
       </c>
       <c r="U38" t="n">
-        <v>1920.755855044102</v>
+        <v>2380.966908822725</v>
       </c>
       <c r="V38" t="n">
-        <v>1920.755855044102</v>
+        <v>2380.966908822725</v>
       </c>
       <c r="W38" t="n">
-        <v>1567.987199773988</v>
+        <v>2028.19825355261</v>
       </c>
       <c r="X38" t="n">
-        <v>1194.521441512908</v>
+        <v>1654.732495291531</v>
       </c>
       <c r="Y38" t="n">
-        <v>804.3821095370968</v>
+        <v>1264.593163315719</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>816.0090920043505</v>
+        <v>839.8406951725675</v>
       </c>
       <c r="C39" t="n">
-        <v>641.5560627232235</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="D39" t="n">
-        <v>492.6216530619722</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E39" t="n">
-        <v>333.3841980565167</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F39" t="n">
-        <v>186.8496400834017</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
@@ -7256,10 +7256,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K39" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L39" t="n">
-        <v>540.2677802593125</v>
+        <v>540.2677802593126</v>
       </c>
       <c r="M39" t="n">
         <v>1034.670495654875</v>
@@ -7277,28 +7277,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R39" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S39" t="n">
-        <v>2280.589895521037</v>
+        <v>2340.596123206183</v>
       </c>
       <c r="T39" t="n">
-        <v>2081.228572368206</v>
+        <v>2141.234800053352</v>
       </c>
       <c r="U39" t="n">
-        <v>1853.051068437921</v>
+        <v>1913.057296123066</v>
       </c>
       <c r="V39" t="n">
-        <v>1654.073584723107</v>
+        <v>1677.905187891324</v>
       </c>
       <c r="W39" t="n">
-        <v>1399.836227994905</v>
+        <v>1423.667831163122</v>
       </c>
       <c r="X39" t="n">
-        <v>1191.984727789372</v>
+        <v>1215.816330957589</v>
       </c>
       <c r="Y39" t="n">
-        <v>984.2244290244184</v>
+        <v>1008.056032192635</v>
       </c>
     </row>
     <row r="40">
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>602.8128707069468</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>602.8128707069468</v>
+        <v>487.9764913965091</v>
       </c>
       <c r="S40" t="n">
-        <v>602.8128707069468</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="T40" t="n">
-        <v>602.8128707069468</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="U40" t="n">
-        <v>313.6337831843391</v>
+        <v>271.9381101070625</v>
       </c>
       <c r="V40" t="n">
-        <v>313.6337831843391</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W40" t="n">
-        <v>313.6337831843391</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X40" t="n">
-        <v>313.6337831843391</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y40" t="n">
-        <v>230.468217362803</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1991.009791397003</v>
+        <v>1396.175348063357</v>
       </c>
       <c r="C41" t="n">
-        <v>1622.047274456592</v>
+        <v>1396.175348063357</v>
       </c>
       <c r="D41" t="n">
-        <v>1263.781575849841</v>
+        <v>1396.175348063357</v>
       </c>
       <c r="E41" t="n">
-        <v>877.9933232515971</v>
+        <v>1369.576882096602</v>
       </c>
       <c r="F41" t="n">
-        <v>467.0074184619895</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="G41" t="n">
-        <v>48.81975253256327</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="H41" t="n">
-        <v>48.81975253256327</v>
+        <v>210.9160074365284</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697315</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K41" t="n">
-        <v>412.3079679977586</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540051</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>2440.987626628164</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="V41" t="n">
-        <v>2343.778446667118</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="W41" t="n">
-        <v>1991.009791397003</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="X41" t="n">
-        <v>1991.009791397003</v>
+        <v>1786.314680039169</v>
       </c>
       <c r="Y41" t="n">
-        <v>1991.009791397003</v>
+        <v>1396.175348063357</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>922.6086434646021</v>
+        <v>890.3999085640012</v>
       </c>
       <c r="C42" t="n">
-        <v>748.1556141834751</v>
+        <v>715.9468792828742</v>
       </c>
       <c r="D42" t="n">
-        <v>599.2212045222238</v>
+        <v>567.0124696216229</v>
       </c>
       <c r="E42" t="n">
-        <v>439.9837495167684</v>
+        <v>407.7750146161674</v>
       </c>
       <c r="F42" t="n">
-        <v>293.4491915436533</v>
+        <v>261.2404566430524</v>
       </c>
       <c r="G42" t="n">
-        <v>155.4193039928149</v>
+        <v>123.210569092214</v>
       </c>
       <c r="H42" t="n">
         <v>48.81975253256327</v>
@@ -7493,19 +7493,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K42" t="n">
-        <v>161.1406371339193</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L42" t="n">
-        <v>540.2677802593125</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M42" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O42" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P42" t="n">
         <v>2283.899498973758</v>
@@ -7514,28 +7514,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R42" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S42" t="n">
-        <v>2280.589895521037</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T42" t="n">
-        <v>2081.228572368206</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U42" t="n">
-        <v>1853.051068437921</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V42" t="n">
-        <v>1617.898960206178</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1363.661603477976</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1155.810103272443</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>948.0498045074896</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>48.94946193209694</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
         <v>48.81975253256327</v>
@@ -7578,43 +7578,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>573.6740222801511</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5997883913116</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T43" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="U43" t="n">
-        <v>196.8625555144901</v>
+        <v>412.9009368039365</v>
       </c>
       <c r="V43" t="n">
-        <v>196.8625555144901</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="W43" t="n">
-        <v>196.8625555144901</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="X43" t="n">
-        <v>196.8625555144901</v>
+        <v>158.2164485980496</v>
       </c>
       <c r="Y43" t="n">
-        <v>196.8625555144901</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1346.319649047701</v>
+        <v>1632.744092790253</v>
       </c>
       <c r="C44" t="n">
-        <v>977.3571321072895</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D44" t="n">
-        <v>619.0914335005391</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E44" t="n">
-        <v>540.4033113775685</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F44" t="n">
-        <v>540.4033113775685</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2440.987626628164</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="S44" t="n">
-        <v>2440.987626628164</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="T44" t="n">
-        <v>2440.987626628164</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="U44" t="n">
-        <v>2440.987626628164</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="V44" t="n">
-        <v>2109.924739284593</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="W44" t="n">
-        <v>2109.924739284593</v>
+        <v>2392.809691115455</v>
       </c>
       <c r="X44" t="n">
-        <v>1736.458981023513</v>
+        <v>2019.343932854375</v>
       </c>
       <c r="Y44" t="n">
-        <v>1346.319649047701</v>
+        <v>2019.343932854375</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>829.5376498283632</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C45" t="n">
-        <v>655.0846205472362</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D45" t="n">
-        <v>506.150210885985</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E45" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1165.855302322831</v>
       </c>
       <c r="N45" t="n">
-        <v>1557.865593173221</v>
+        <v>1689.050399841178</v>
       </c>
       <c r="O45" t="n">
-        <v>1970.07121469245</v>
+        <v>2101.256021360407</v>
       </c>
       <c r="P45" t="n">
         <v>2283.899498973758</v>
@@ -7772,7 +7772,7 @@
         <v>1098.160207328955</v>
       </c>
       <c r="Y45" t="n">
-        <v>997.7529868484312</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365.6690290428633</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="C46" t="n">
-        <v>196.7328461149564</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="D46" t="n">
-        <v>196.7328461149564</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="E46" t="n">
-        <v>48.81975253256327</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7833,25 +7833,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>424.5997883913116</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>196.8625555144901</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="V46" t="n">
-        <v>586.4616081863934</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="W46" t="n">
-        <v>586.4616081863934</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="X46" t="n">
-        <v>586.4616081863934</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="Y46" t="n">
-        <v>365.6690290428633</v>
+        <v>195.7097000304736</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8300,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>356.2611315939937</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>193.2401765302593</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>251.2968779656277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>260.9356492070019</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>74.42821185443506</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>251.2968779656277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>251.2968779656277</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>235.6803650721833</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23311,7 +23311,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>113.9036518071727</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23339,10 +23339,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>116.4795623923481</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23357,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>31.12404080756151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23396,7 +23396,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,19 +23466,19 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>81.74758393505803</v>
+        <v>166.4027044710487</v>
       </c>
       <c r="T13" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23497,22 +23497,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>54.28346730177572</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>160.4752923549255</v>
@@ -23548,10 +23548,10 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>88.99356486687466</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23576,7 +23576,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>66.55691803568405</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23627,7 +23627,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23642,7 +23642,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>91.21612896867116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23706,19 +23706,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T16" t="n">
-        <v>74.46239723693429</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>178.4700640727432</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>125.4889390439866</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2418970482362</v>
+        <v>80.552330710414</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>31.12404080756147</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23870,13 +23870,13 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>198.4198312014622</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23901,10 +23901,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>93.49183893271999</v>
       </c>
       <c r="H19" t="n">
         <v>157.0547409226243</v>
@@ -23913,7 +23913,7 @@
         <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,16 +23943,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
-        <v>97.9457550174279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>288.873861425971</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>326.9451065060316</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24068,7 +24068,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24107,7 +24107,7 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>198.4198312014622</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -24138,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>64.62846673490429</v>
       </c>
       <c r="G22" t="n">
         <v>167.4092130247883</v>
@@ -24183,19 +24183,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>178.234362383534</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>174.0298710478397</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,25 +24253,25 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T23" t="n">
-        <v>59.25482521133844</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24293,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>118.8554155636029</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>58.24193217968241</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>16.48505947671848</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R25" t="n">
         <v>151.1350615014064</v>
@@ -24423,7 +24423,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
-        <v>171.3450620358009</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>100.4961318041354</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>358.689095290165</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,10 +24521,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>91.21612896867104</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24542,7 +24542,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>198.4198312014621</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>33.26960522982978</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4092130247883</v>
+        <v>20.84683807268104</v>
       </c>
       <c r="H28" t="n">
         <v>157.0547409226243</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
         <v>151.1350615014064</v>
@@ -24685,16 +24685,16 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>148.2765432732407</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>86.58791621690642</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24827,7 +24827,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>141.3464342174087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>97.9457550174281</v>
       </c>
       <c r="G31" t="n">
         <v>167.4092130247883</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24894,10 +24894,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U31" t="n">
-        <v>175.2684795173875</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>106.1698378371993</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>203.5457408906546</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25004,7 +25004,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -25013,10 +25013,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>40.77475074606097</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>97.39144430711919</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>3.875767239862341</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,7 +25092,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>137.955174638333</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
         <v>151.1350615014064</v>
@@ -25131,19 +25131,19 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.03939889391013</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>104.0018546815778</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
@@ -25174,7 +25174,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>312.4322380657107</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25244,13 +25244,13 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>65.50479675552441</v>
@@ -25289,10 +25289,10 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>53.35061880807831</v>
       </c>
       <c r="V36" t="n">
-        <v>92.88627525581313</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>93.25613724351025</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
         <v>157.0547409226243</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R37" t="n">
         <v>151.1350615014064</v>
@@ -25365,19 +25365,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>212.6197173962969</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,10 +25402,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>8.979182118591865</v>
       </c>
       <c r="S38" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>22.03059454762266</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25475,7 +25475,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>116.4795623923478</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>35.81287827175959</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25593,22 +25593,22 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R40" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>31.25046932507379</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>136.250743188774</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>355.5978887651746</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>231.5151703086997</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>141.3464342174087</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>31.88664755159492</v>
       </c>
       <c r="I42" t="n">
         <v>65.50479675552441</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.2926357173929</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4092130247883</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>110.2819242472633</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>304.0291291705208</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>20.70353658839468</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -25924,7 +25924,7 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>106.2795475015858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26073,16 +26073,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2872966473816</v>
+        <v>285.1459697182053</v>
       </c>
       <c r="V46" t="n">
-        <v>198.5028474444068</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.9065878681</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.906587868</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>555841.906587868</v>
+        <v>555841.9065878681</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>555841.906587868</v>
+        <v>555841.9065878679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>555841.906587868</v>
+        <v>555841.9065878678</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>555841.9065878679</v>
+        <v>555841.9065878678</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
-      </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
         <v>393156.4705133701</v>
       </c>
       <c r="F2" t="n">
+        <v>393156.47051337</v>
+      </c>
+      <c r="G2" t="n">
+        <v>393156.4705133698</v>
+      </c>
+      <c r="H2" t="n">
         <v>393156.4705133701</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>393156.4705133698</v>
+      </c>
+      <c r="J2" t="n">
         <v>393156.4705133699</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>393156.4705133698</v>
       </c>
-      <c r="I2" t="n">
-        <v>393156.47051337</v>
-      </c>
-      <c r="J2" t="n">
-        <v>393156.4705133701</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>393156.4705133699</v>
       </c>
-      <c r="L2" t="n">
-        <v>393156.47051337</v>
-      </c>
       <c r="M2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133698</v>
       </c>
       <c r="N2" t="n">
         <v>393156.4705133698</v>
       </c>
       <c r="O2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133699</v>
       </c>
       <c r="P2" t="n">
-        <v>393156.4705133701</v>
+        <v>393156.4705133698</v>
       </c>
     </row>
     <row r="3">
@@ -26423,7 +26423,7 @@
         <v>279125.0601321633</v>
       </c>
       <c r="D4" t="n">
-        <v>279125.0601321633</v>
+        <v>279125.0601321634</v>
       </c>
       <c r="E4" t="n">
         <v>463.7092767442726</v>
@@ -26432,25 +26432,25 @@
         <v>463.7092767442726</v>
       </c>
       <c r="G4" t="n">
+        <v>463.7092767442725</v>
+      </c>
+      <c r="H4" t="n">
         <v>463.7092767442726</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>463.7092767442725</v>
-      </c>
-      <c r="I4" t="n">
-        <v>463.7092767442726</v>
       </c>
       <c r="J4" t="n">
         <v>463.7092767442726</v>
       </c>
       <c r="K4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="L4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="M4" t="n">
-        <v>463.7092767442726</v>
+        <v>463.7092767442725</v>
       </c>
       <c r="N4" t="n">
         <v>463.7092767442726</v>
@@ -26499,7 +26499,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="L5" t="n">
-        <v>44136.03802033843</v>
+        <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>187079.5227241325</v>
+        <v>187079.5227241324</v>
       </c>
       <c r="C6" t="n">
-        <v>267848.9542556801</v>
+        <v>267848.9542556804</v>
       </c>
       <c r="D6" t="n">
-        <v>267848.9542556804</v>
+        <v>267848.9542556802</v>
       </c>
       <c r="E6" t="n">
-        <v>-27847.50049022501</v>
+        <v>-21575.46837386597</v>
       </c>
       <c r="F6" t="n">
-        <v>341587.7986425551</v>
+        <v>347859.8307589141</v>
       </c>
       <c r="G6" t="n">
-        <v>341587.798642555</v>
+        <v>347859.8307589139</v>
       </c>
       <c r="H6" t="n">
-        <v>341587.7986425549</v>
+        <v>347859.8307589142</v>
       </c>
       <c r="I6" t="n">
-        <v>341587.7986425551</v>
+        <v>347859.8307589139</v>
       </c>
       <c r="J6" t="n">
-        <v>278527.8560434489</v>
+        <v>284799.8881598078</v>
       </c>
       <c r="K6" t="n">
-        <v>341587.798642555</v>
+        <v>347859.8307589139</v>
       </c>
       <c r="L6" t="n">
-        <v>341587.7986425551</v>
+        <v>347859.830758914</v>
       </c>
       <c r="M6" t="n">
-        <v>249573.5533614621</v>
+        <v>255845.5854778208</v>
       </c>
       <c r="N6" t="n">
-        <v>341587.7986425549</v>
+        <v>347859.8307589139</v>
       </c>
       <c r="O6" t="n">
-        <v>341587.7986425551</v>
+        <v>347859.8307589141</v>
       </c>
       <c r="P6" t="n">
-        <v>341587.7986425551</v>
+        <v>347859.8307589139</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -26819,7 +26819,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="L4" t="n">
-        <v>610.246906657041</v>
+        <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
         <v>610.2469066570409</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>197.1062779535693</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27441,10 +27441,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>186.2617493458957</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -27460,10 +27460,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>164.5761945141427</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>99.74187743235977</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27542,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>131.1616962950334</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>150.2763745353532</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>26.50255120528303</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27794,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>331.6386549045595</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>169.5702675696171</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,31 +27931,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>107.2027145156362</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,16 +27979,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>197.8455930419602</v>
       </c>
     </row>
     <row r="10">
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>37.69799725872717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>54.03113748306089</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -31840,7 +31840,7 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K12" t="n">
         <v>112.054233062727</v>
@@ -32080,10 +32080,10 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
-        <v>150.670744704085</v>
+        <v>25.44815259440708</v>
       </c>
       <c r="M15" t="n">
         <v>175.8256523897584</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P17" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q17" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32332,22 +32332,22 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>31.05224333582959</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,10 +32557,10 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>137.5023856571342</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>162.6572933428076</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H23" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I23" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J23" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K23" t="n">
         <v>164.9766803203078</v>
@@ -32721,7 +32721,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N23" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O23" t="n">
         <v>218.5211886152591</v>
@@ -32733,13 +32733,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R23" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S23" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T23" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U23" t="n">
         <v>0.1037558596002446</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H24" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I24" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K24" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L24" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M24" t="n">
-        <v>50.60306028008051</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N24" t="n">
         <v>180.479234222958</v>
@@ -32809,10 +32809,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R24" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S24" t="n">
         <v>12.88941730778304</v>
@@ -32821,7 +32821,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,40 +32858,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H25" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I25" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J25" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K25" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L25" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M25" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N25" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O25" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P25" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R25" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S25" t="n">
         <v>10.13860056042011</v>
@@ -32900,7 +32900,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,40 +33016,40 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K27" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L27" t="n">
-        <v>150.670744704085</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N27" t="n">
-        <v>55.25664211328007</v>
+        <v>180.479234222958</v>
       </c>
       <c r="O27" t="n">
-        <v>165.1032398336026</v>
+        <v>125.7369593795441</v>
       </c>
       <c r="P27" t="n">
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R27" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L28" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P28" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N30" t="n">
-        <v>180.479234222958</v>
+        <v>102.4964421275412</v>
       </c>
       <c r="O30" t="n">
         <v>165.1032398336026</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R30" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L31" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P31" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
@@ -33505,13 +33505,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>137.5023856571341</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N33" t="n">
-        <v>180.479234222958</v>
+        <v>167.3108751760072</v>
       </c>
       <c r="O33" t="n">
         <v>165.1032398336026</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R33" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L34" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P34" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>56.00323343953796</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K36" t="n">
-        <v>112.054233062727</v>
+        <v>102.4964421275414</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R36" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L37" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P37" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
@@ -33976,13 +33976,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L39" t="n">
-        <v>150.670744704085</v>
+        <v>25.44815259440725</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R39" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L40" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P40" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093279</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
@@ -34213,13 +34213,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34228,13 +34228,13 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P42" t="n">
-        <v>132.5099057252086</v>
+        <v>7.287313615530792</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,16 +34447,16 @@
         <v>23.89183609589066</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K45" t="n">
         <v>112.054233062727</v>
       </c>
       <c r="L45" t="n">
-        <v>25.44815259440708</v>
+        <v>150.670744704085</v>
       </c>
       <c r="M45" t="n">
-        <v>175.8256523897584</v>
+        <v>118.2985329568231</v>
       </c>
       <c r="N45" t="n">
         <v>180.479234222958</v>
@@ -34465,7 +34465,7 @@
         <v>165.1032398336026</v>
       </c>
       <c r="P45" t="n">
-        <v>132.5099057252086</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>88.57936276876457</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,7 +34789,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34947,7 +34947,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35020,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>217.7067518141195</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K12" t="n">
         <v>238.6780311009466</v>
@@ -35506,10 +35506,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
-        <v>191.7756748411377</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179921</v>
       </c>
       <c r="M15" t="n">
         <v>499.39668221774</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O17" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q17" t="n">
         <v>130.0651205780292</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>126.9612417926717</v>
+        <v>215.5406045614365</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O19" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>369.7883511807192</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>486.2283231707892</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K23" t="n">
         <v>269.032241846492</v>
@@ -36366,7 +36366,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M23" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N23" t="n">
         <v>439.3515785419015</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K24" t="n">
-        <v>238.6780311009466</v>
+        <v>48.64100594280298</v>
       </c>
       <c r="L24" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M24" t="n">
-        <v>374.1740901080621</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N24" t="n">
         <v>528.4798964831782</v>
@@ -36518,13 +36518,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L25" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M25" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N25" t="n">
         <v>133.158287785359</v>
@@ -36533,7 +36533,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P25" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L27" t="n">
-        <v>382.95671022767</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N27" t="n">
-        <v>403.2573043735003</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>416.3693146658877</v>
+        <v>377.0030342118292</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K30" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N30" t="n">
-        <v>528.4798964831782</v>
+        <v>450.4971043877614</v>
       </c>
       <c r="O30" t="n">
         <v>416.3693146658877</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37153,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>369.7883511807191</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>515.3115374362275</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>55.2566421132801</v>
+        <v>64.8144330484658</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009466</v>
+        <v>229.120240165761</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37624,13 +37624,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L39" t="n">
-        <v>382.95671022767</v>
+        <v>257.7341181179922</v>
       </c>
       <c r="M39" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37861,13 +37861,13 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>113.4554389912687</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37876,7 +37876,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>316.9982669508155</v>
+        <v>191.7756748411377</v>
       </c>
       <c r="Q42" t="n">
         <v>158.6748764185921</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
-        <v>257.7341181179921</v>
+        <v>382.95671022767</v>
       </c>
       <c r="M45" t="n">
-        <v>499.39668221774</v>
+        <v>441.8695627848047</v>
       </c>
       <c r="N45" t="n">
         <v>528.4798964831782</v>
@@ -38113,7 +38113,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P45" t="n">
-        <v>316.9982669508155</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>158.6748764185921</v>
